--- a/data/trans_dic/IP16B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,55; 100,0</t>
+          <t>58,22; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,08; 100,0</t>
+          <t>49,33; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,52; 100,0</t>
+          <t>44,4; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,04; 92,86</t>
+          <t>47,05; 92,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 87,67</t>
+          <t>26,92; 88,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,7; 95,99</t>
+          <t>63,36; 95,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,66; 92,33</t>
+          <t>58,35; 91,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,32; 93,71</t>
+          <t>54,36; 94,39</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,71; 96,32</t>
+          <t>79,48; 96,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,07; 94,73</t>
+          <t>80,16; 94,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,06; 95,83</t>
+          <t>77,59; 95,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,31; 89,76</t>
+          <t>64,78; 90,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,76; 86,57</t>
+          <t>68,16; 86,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,19; 96,3</t>
+          <t>77,67; 95,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,21; 91,0</t>
+          <t>77,03; 91,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>76,87; 89,1</t>
+          <t>75,92; 88,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,83; 94,27</t>
+          <t>82,55; 94,43</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,37; 96,22</t>
+          <t>69,61; 96,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,67; 95,37</t>
+          <t>58,22; 95,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,66; 100,0</t>
+          <t>72,63; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,09; 100,0</t>
+          <t>50,65; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,26; 100,0</t>
+          <t>75,48; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,19; 92,1</t>
+          <t>56,98; 92,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,28; 95,32</t>
+          <t>73,01; 95,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,84; 95,72</t>
+          <t>75,02; 95,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,67; 93,91</t>
+          <t>73,77; 93,92</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,91; 94,39</t>
+          <t>81,55; 94,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,61; 93,52</t>
+          <t>79,83; 92,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,27; 96,21</t>
+          <t>83,18; 96,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,94; 88,63</t>
+          <t>68,96; 89,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,27; 87,76</t>
+          <t>73,18; 87,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,04; 89,92</t>
+          <t>74,32; 90,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,47; 90,15</t>
+          <t>78,69; 90,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,0; 88,07</t>
+          <t>78,47; 88,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,39; 91,24</t>
+          <t>81,02; 91,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>82,71%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>76,09%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57,98%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85,45%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>83,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,04%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>52,98; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,13; 92,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,71; 88,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,98; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,21; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>63,87; 96,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,14; 92,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,27; 93,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>78,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>89,14%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,22; 100,0</t>
+          <t>64,88; 89,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,33; 100,0</t>
+          <t>67,87; 86,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>77,37; 95,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,4; 100,0</t>
+          <t>79,4; 96,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,05; 92,91</t>
+          <t>80,01; 94,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 88,91</t>
+          <t>76,73; 95,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,36; 95,82</t>
+          <t>75,48; 91,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,35; 91,67</t>
+          <t>77,06; 89,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,36; 94,39</t>
+          <t>82,3; 94,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,99%</t>
+          <t>88,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,66%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>85,48%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,48; 96,29</t>
+          <t>45,86; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,16; 94,68</t>
+          <t>77,29; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,59; 95,92</t>
+          <t>59,88; 91,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64,78; 90,68</t>
+          <t>69,66; 96,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,16; 86,15</t>
+          <t>60,87; 95,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,67; 95,86</t>
+          <t>72,62; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,03; 91,55</t>
+          <t>71,41; 94,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,92; 88,9</t>
+          <t>74,67; 95,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,55; 94,43</t>
+          <t>74,74; 94,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>86,8%</t>
         </is>
       </c>
     </row>
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,61; 96,2</t>
+          <t>68,76; 88,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,22; 95,32</t>
+          <t>72,45; 87,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,63; 100,0</t>
+          <t>73,84; 90,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,65; 100,0</t>
+          <t>80,81; 94,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,48; 100,0</t>
+          <t>79,6; 92,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,98; 92,38</t>
+          <t>82,35; 96,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,01; 95,17</t>
+          <t>78,67; 90,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,02; 95,82</t>
+          <t>77,77; 88,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,77; 93,92</t>
+          <t>81,04; 91,57</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>88,8%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>87,48%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>91,01%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>80,34%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>80,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>83,28%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>85,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>84,11%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>86,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>81,55; 94,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>79,83; 92,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>83,18; 96,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>68,96; 89,68</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>73,18; 87,11</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>74,32; 90,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>78,69; 90,51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>78,47; 88,34</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>81,02; 91,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
